--- a/Scope-Colabex_V02.xlsx
+++ b/Scope-Colabex_V02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19440" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19440" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>Not started</t>
   </si>
@@ -497,12 +497,6 @@
     <t>E-009: Do not replace upper case letters (e.g. “IT”) by lower case letters (e.g. “it”). Only treat them internally as identical</t>
   </si>
   <si>
-    <t>Only within profile?</t>
-  </si>
-  <si>
-    <t>Does that mean the UC confirm registration?</t>
-  </si>
-  <si>
     <t>Recommend course</t>
   </si>
   <si>
@@ -547,6 +541,18 @@
   </si>
   <si>
     <t>Confirm registration</t>
+  </si>
+  <si>
+    <t>E-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-017: Error message should display what was wrong saving the copy and not just saying that it was wrong. </t>
+  </si>
+  <si>
+    <t>E-018</t>
+  </si>
+  <si>
+    <t>E-018: Is it possible to have here some kind of breadcrumb navigation? For more user-friendly navigation by getting to the erroneous fields. This should be configured on the top of the formular.</t>
   </si>
 </sst>
 </file>
@@ -1190,11 +1196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1446,9 +1452,6 @@
         <v>1</v>
       </c>
       <c r="N5" s="22"/>
-      <c r="P5" t="s">
-        <v>157</v>
-      </c>
       <c r="R5" s="1">
         <v>0.4</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1737,9 +1740,6 @@
         <v>143</v>
       </c>
       <c r="N11" s="22"/>
-      <c r="P11" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J13" s="14">
         <f>IF(B13&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B13)*1),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3">
         <f>IF(B13&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B13)*(Errors!$I$2:$I$35=Errors!$O$4)),"")</f>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="L13" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>143</v>
@@ -1977,7 +1977,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -2897,9 +2897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +3226,7 @@
         <v>131</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>148</v>
@@ -3252,7 +3252,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>148</v>
@@ -3275,10 +3275,10 @@
         <v>Create course</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>148</v>
@@ -3301,10 +3301,10 @@
         <v>Create course</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>148</v>
@@ -3327,10 +3327,10 @@
         <v>Create course</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>115</v>
@@ -3353,10 +3353,10 @@
         <v>Create course</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>148</v>
@@ -3379,10 +3379,10 @@
         <v>Create course</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>148</v>
@@ -3393,35 +3393,55 @@
       <c r="H17" s="27"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" s="25" t="str">
         <f>IF(B18&lt;&gt;"",VLOOKUP(B18,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="27"/>
+        <v>Duplicate course</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="27">
+        <v>41225</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="25" t="str">
         <f>IF(B19&lt;&gt;"",VLOOKUP(B19,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27"/>
+        <v>Duplicate course</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="27">
+        <v>41225</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="28"/>
     </row>

--- a/Scope-Colabex_V02.xlsx
+++ b/Scope-Colabex_V02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="189">
   <si>
     <t>Not started</t>
   </si>
@@ -553,6 +553,48 @@
   </si>
   <si>
     <t>E-018: Is it possible to have here some kind of breadcrumb navigation? For more user-friendly navigation by getting to the erroneous fields. This should be configured on the top of the formular.</t>
+  </si>
+  <si>
+    <t>E-019</t>
+  </si>
+  <si>
+    <t>E-019: Misspelling not “Sig up” but “Sign up”</t>
+  </si>
+  <si>
+    <t>E-020</t>
+  </si>
+  <si>
+    <t>E-020: When signing up with a taken account, the remarks are not looking nice regarding line-break and span</t>
+  </si>
+  <si>
+    <t>E-021</t>
+  </si>
+  <si>
+    <t>E-021: When clicking on "send" the progress bar occurs and an email is sent. But even after receiving the email the progress bar still shows action. A message like "the email is now sent" or similar should be displayed to the user on the web frontend.</t>
+  </si>
+  <si>
+    <t>E-022</t>
+  </si>
+  <si>
+    <t>E-023</t>
+  </si>
+  <si>
+    <t>E-022: After receiving email to confirm password reset the plain login page is displayed. There should be some kind of comment, that there is an email send with the new password.</t>
+  </si>
+  <si>
+    <t>E-023: Please no editable field after clicking on "register". Fields should change into non-editable labels.</t>
+  </si>
+  <si>
+    <t>E-024</t>
+  </si>
+  <si>
+    <t>E-024: After clicking "send" the "send" button should be removed or greyed out / non-clickable.</t>
+  </si>
+  <si>
+    <t>E-025</t>
+  </si>
+  <si>
+    <t>E-025: If Email could not be sent (e.g. due to email-server not available) , please show appropriate error message instead of ongoing progress bar.</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1239,10 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1426,7 @@
       </c>
       <c r="J4" s="14">
         <f>IF(B4&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B4)*1),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
         <f>IF(B4&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B4)*(Errors!$I$2:$I$35=Errors!$O$4)),"")</f>
@@ -1438,7 +1480,7 @@
       </c>
       <c r="J5" s="14">
         <f>IF(B5&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B5)*1),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
         <f>IF(B5&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B5)*(Errors!$I$2:$I$35=Errors!$O$4)),"")</f>
@@ -1446,10 +1488,10 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N5" s="22"/>
       <c r="R5" s="1">
@@ -1492,7 +1534,7 @@
       </c>
       <c r="J6" s="14">
         <f>IF(B6&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B6)*1),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
         <f>IF(B6&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B6)*(Errors!$I$2:$I$35=Errors!$O$4)),"")</f>
@@ -1540,7 +1582,7 @@
       </c>
       <c r="J7" s="14">
         <f>IF(B7&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B7)*1),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
         <f>IF(B7&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B7)*(Errors!$I$2:$I$35=Errors!$O$4)),"")</f>
@@ -1983,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>2</v>
@@ -1992,7 +2034,7 @@
         <v>41222</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="14">
         <f>IF(B17&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B17)*1),"")</f>
@@ -2899,7 +2941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,11 +3062,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="25" t="str">
         <f>IF(B4&lt;&gt;"",VLOOKUP(B4,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v>Register user</v>
+        <v>Confirm registration</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>124</v>
@@ -3157,7 +3199,9 @@
         <v>41224</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -3183,7 +3227,9 @@
         <v>41224</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -3209,7 +3255,9 @@
         <v>41224</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
@@ -3235,7 +3283,9 @@
         <v>41224</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="I11" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -3261,7 +3311,9 @@
         <v>41224</v>
       </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="I12" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -3287,7 +3339,9 @@
         <v>41224</v>
       </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -3313,7 +3367,9 @@
         <v>41224</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
@@ -3339,7 +3395,9 @@
         <v>41224</v>
       </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
@@ -3365,7 +3423,9 @@
         <v>41224</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -3391,7 +3451,9 @@
         <v>41224</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -3417,7 +3479,9 @@
         <v>41225</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
@@ -3443,109 +3507,205 @@
         <v>41225</v>
       </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="C20" s="25" t="str">
         <f>IF(B20&lt;&gt;"",VLOOKUP(B20,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
+        <v>Login user</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="27">
+        <v>41231</v>
+      </c>
       <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="25" t="str">
         <f>IF(B21&lt;&gt;"",VLOOKUP(B21,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
+        <v>Register user</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="27">
+        <v>41231</v>
+      </c>
       <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="I21" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="25" t="str">
         <f>IF(B22&lt;&gt;"",VLOOKUP(B22,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
+        <v>Recover password</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="27">
+        <v>41231</v>
+      </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
+      <c r="I22" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="25" t="str">
         <f>IF(B23&lt;&gt;"",VLOOKUP(B23,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
+        <v>Recover password</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="27">
+        <v>41231</v>
+      </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="I23" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="25" t="str">
         <f>IF(B24&lt;&gt;"",VLOOKUP(B24,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
+        <v>Register user</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="27">
+        <v>41231</v>
+      </c>
       <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+      <c r="I24" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="25" t="str">
         <f>IF(B25&lt;&gt;"",VLOOKUP(B25,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
+        <v>Register user</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="27">
+        <v>41231</v>
+      </c>
       <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
+      <c r="I25" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>21</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="25" t="str">
         <f>IF(B26&lt;&gt;"",VLOOKUP(B26,Requirements!$B$3:$D$38,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27"/>
+        <v>Recover password</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="27">
+        <v>41231</v>
+      </c>
       <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>

--- a/Scope-Colabex_V02.xlsx
+++ b/Scope-Colabex_V02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="190">
   <si>
     <t>Not started</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>E-025: If Email could not be sent (e.g. due to email-server not available) , please show appropriate error message instead of ongoing progress bar.</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -2940,8 +2943,8 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,7 +3718,9 @@
         <v/>
       </c>
       <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>

--- a/Scope-Colabex_V02.xlsx
+++ b/Scope-Colabex_V02.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="189">
   <si>
     <t>Not started</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>E-025: If Email could not be sent (e.g. due to email-server not available) , please show appropriate error message instead of ongoing progress bar.</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -2944,7 +2941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,9 +3715,7 @@
         <v/>
       </c>
       <c r="D27" s="25"/>
-      <c r="E27" s="26" t="s">
-        <v>189</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="25"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>

--- a/Scope-Colabex_V02.xlsx
+++ b/Scope-Colabex_V02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19440" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19440" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="prozent">Requirements!$R$3:$R$8</definedName>
     <definedName name="status">Requirements!$S$3:$S$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -600,12 +600,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0_ ;[Red]\-0.0\ "/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -896,10 +902,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -950,9 +957,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -990,7 +997,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1024,7 +1031,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1059,10 +1065,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1235,17 +1240,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="36" hidden="1" customWidth="1"/>
@@ -1253,7 +1258,7 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1267,7 +1272,7 @@
     <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="21.75" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>135</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="18" t="s">
         <v>137</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1367,8 +1372,8 @@
       <c r="H3" s="13">
         <v>41222</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>1</v>
+      <c r="I3" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="J3" s="14">
         <f>IF(B3&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B3)*1),"")</f>
@@ -1383,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N3" s="22"/>
       <c r="R3" s="1">
@@ -1396,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -1504,7 +1509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1674,7 +1679,7 @@
         <v>41222</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="14">
         <f>IF(B9&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B9)*1),"")</f>
@@ -1689,11 +1694,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -1738,7 +1743,7 @@
       </c>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -1828,7 +1833,7 @@
       </c>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -1873,7 +1878,7 @@
       </c>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -1918,7 +1923,7 @@
       </c>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1944,7 +1949,7 @@
         <v>41222</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="14">
         <f>IF(B15&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B15)*1),"")</f>
@@ -1959,11 +1964,11 @@
         <v>1</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -2008,7 +2013,7 @@
       </c>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -2025,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
         <v>2</v>
@@ -2034,7 +2039,7 @@
         <v>41222</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="14">
         <f>IF(B17&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B17)*1),"")</f>
@@ -2053,7 +2058,7 @@
       </c>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -2098,7 +2103,7 @@
       </c>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -2115,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G19" s="8">
         <v>2</v>
       </c>
       <c r="H19" s="13">
-        <v>41222</v>
+        <v>41237</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>1</v>
@@ -2139,11 +2144,11 @@
         <v>1</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2160,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="8">
         <v>3</v>
       </c>
       <c r="H20" s="13">
-        <v>41222</v>
+        <v>41237</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>1</v>
@@ -2184,11 +2189,11 @@
         <v>1</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -2204,13 +2209,17 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G21" s="8">
         <v>4</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>41237</v>
+      </c>
       <c r="I21" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="14">
         <f>IF(B21&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B21)*1),"")</f>
@@ -2225,11 +2234,11 @@
         <v>1</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -2245,13 +2254,17 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0.8</v>
+      </c>
       <c r="G22" s="8">
         <v>2</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>41237</v>
+      </c>
       <c r="I22" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="14">
         <f>IF(B22&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B22)*1),"")</f>
@@ -2266,11 +2279,11 @@
         <v>1</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -2290,7 +2303,9 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>41237</v>
+      </c>
       <c r="I23" s="9" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2326,7 @@
       </c>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="20">
         <v>30</v>
       </c>
@@ -2331,7 +2346,9 @@
       <c r="G24" s="8">
         <v>4</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>41264</v>
+      </c>
       <c r="I24" s="9" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2369,7 @@
       </c>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="20">
         <v>31</v>
       </c>
@@ -2372,7 +2389,9 @@
       <c r="G25" s="8">
         <v>4</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>41264</v>
+      </c>
       <c r="I25" s="9" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2412,7 @@
       </c>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="20">
         <v>32</v>
       </c>
@@ -2413,7 +2432,9 @@
       <c r="G26" s="8">
         <v>4</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>41264</v>
+      </c>
       <c r="I26" s="9" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2455,7 @@
       </c>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="20">
         <v>18</v>
       </c>
@@ -2475,7 +2496,7 @@
       </c>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="20">
         <v>23</v>
       </c>
@@ -2516,7 +2537,7 @@
       </c>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="20">
         <v>24</v>
       </c>
@@ -2557,7 +2578,7 @@
       </c>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="20">
         <v>25</v>
       </c>
@@ -2598,7 +2619,7 @@
       </c>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="20">
         <v>26</v>
       </c>
@@ -2639,7 +2660,7 @@
       </c>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="20">
         <v>27</v>
       </c>
@@ -2680,7 +2701,7 @@
       </c>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="20">
         <v>28</v>
       </c>
@@ -2696,15 +2717,13 @@
       <c r="E33" s="6">
         <v>2</v>
       </c>
-      <c r="F33" s="7">
-        <v>0.6</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="8">
         <v>4</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="14">
         <f>IF(B33&lt;&gt;"",SUMPRODUCT((Errors!$B$2:$B$35=Requirements!B33)*1),"")</f>
@@ -2723,7 +2742,7 @@
       </c>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="20">
         <v>29</v>
       </c>
@@ -2764,7 +2783,7 @@
       </c>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="20">
         <v>33</v>
       </c>
@@ -2805,7 +2824,7 @@
       </c>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="20">
         <v>34</v>
       </c>
@@ -2846,7 +2865,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="20"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2871,7 +2890,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="20"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2936,15 +2955,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -2954,7 +2973,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -2989,7 +3008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3023,7 +3042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -3057,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="75">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -3119,7 +3138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="30">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -3147,7 +3166,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -3203,7 +3222,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -3231,7 +3250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="30">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -3259,7 +3278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -3287,7 +3306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -3315,7 +3334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -3343,7 +3362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="60">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -3371,7 +3390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -3455,7 +3474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -3483,7 +3502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -3511,7 +3530,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -3539,7 +3558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -3567,7 +3586,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="60">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -3595,7 +3614,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -3623,7 +3642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -3651,7 +3670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -3679,7 +3698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="24">
         <v>21</v>
       </c>
@@ -3707,7 +3726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="str">
@@ -3721,7 +3740,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25" t="str">
@@ -3735,7 +3754,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25" t="str">
@@ -3749,7 +3768,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25" t="str">
@@ -3763,7 +3782,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="24"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25" t="str">
@@ -3777,7 +3796,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25" t="str">
@@ -3791,7 +3810,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="24"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25" t="str">
@@ -3805,7 +3824,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="24"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="str">
@@ -3819,7 +3838,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="24"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25" t="str">
